--- a/[Architect]/201612-nadeshiko-phase1/04.DB設計/DB設計書/nadeshikoDB設計書.xlsx
+++ b/[Architect]/201612-nadeshiko-phase1/04.DB設計/DB設計書/nadeshikoDB設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14820" windowHeight="9930"/>
+    <workbookView windowWidth="23895" windowHeight="10350" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <t>MySQL</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>purchase_price</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>レンタル価格</t>
@@ -523,10 +526,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -586,51 +589,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,40 +604,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -698,8 +627,30 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,6 +666,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -723,7 +697,36 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,30 +759,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -787,6 +766,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,24 +801,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -858,6 +825,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -871,6 +856,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,43 +927,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,6 +1183,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1199,31 +1226,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1242,8 +1245,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1255,7 +1258,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1264,136 +1267,136 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2112,7 +2115,7 @@
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -2346,7 +2349,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2594,7 +2597,7 @@
         <v>58</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E15" s="49"/>
       <c r="F15" s="51" t="s">
@@ -2609,13 +2612,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="50" t="s">
         <v>59</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>47</v>
       </c>
       <c r="E16" s="49"/>
       <c r="F16" s="51" t="s">
@@ -2630,13 +2633,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E17" s="49"/>
       <c r="F17" s="51" t="s">
@@ -2651,10 +2654,10 @@
         <v>7</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="50" t="s">
         <v>56</v>
@@ -2672,13 +2675,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="51" t="s">
@@ -2693,13 +2696,13 @@
         <v>9</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20" s="49"/>
       <c r="F20" s="51" t="s">
@@ -2714,13 +2717,13 @@
         <v>10</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" s="49"/>
       <c r="F21" s="51" t="s">
@@ -2735,13 +2738,13 @@
         <v>11</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="51" t="s">
@@ -2752,7 +2755,7 @@
       </c>
       <c r="H22" s="52"/>
       <c r="I22" s="40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2760,10 +2763,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="50" t="s">
         <v>53</v>
@@ -2781,10 +2784,10 @@
         <v>13</v>
       </c>
       <c r="B24" s="85" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C24" s="86" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" s="86" t="s">
         <v>53</v>
@@ -2802,10 +2805,10 @@
         <v>14</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="89" t="s">
         <v>47</v>
@@ -2823,10 +2826,10 @@
         <v>15</v>
       </c>
       <c r="B26" s="90" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C26" s="91" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="37" t="s">
         <v>47</v>
@@ -2844,13 +2847,13 @@
         <v>16</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="51" t="s">
@@ -2858,7 +2861,7 @@
       </c>
       <c r="G27" s="51"/>
       <c r="H27" s="52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I27" s="40"/>
     </row>
@@ -2870,10 +2873,10 @@
         <v>32</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E28" s="49"/>
       <c r="F28" s="51" t="s">
@@ -2942,7 +2945,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="5" t="s">
@@ -2957,7 +2960,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="5" t="s">
@@ -2974,7 +2977,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
@@ -2991,7 +2994,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
@@ -3008,7 +3011,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -3029,7 +3032,7 @@
     <row r="8" ht="14.25" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -3093,16 +3096,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F13" s="72" t="s">
         <v>49</v>
@@ -3112,7 +3115,7 @@
         <v>50</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" ht="17.1" customHeight="1" spans="1:9">
@@ -3120,10 +3123,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D14" s="75" t="s">
         <v>47</v>
@@ -3140,13 +3143,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E15" s="58"/>
       <c r="F15" s="79" t="s">
@@ -3161,13 +3164,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E16" s="58"/>
       <c r="F16" s="79" t="s">
@@ -3921,7 +3924,7 @@
   <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:I25"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4103,10 +4106,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D13" s="57" t="s">
         <v>47</v>
@@ -4126,16 +4129,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D14" s="57" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F14" s="52" t="s">
         <v>49</v>
@@ -4143,7 +4146,7 @@
       <c r="G14" s="43"/>
       <c r="H14" s="43"/>
       <c r="I14" s="43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4160,7 +4163,7 @@
         <v>47</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F15" s="52" t="s">
         <v>49</v>
@@ -4168,7 +4171,7 @@
       <c r="G15" s="43"/>
       <c r="H15" s="43"/>
       <c r="I15" s="43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4197,10 +4200,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D17" s="57" t="s">
         <v>47</v>
@@ -4218,13 +4221,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D18" s="57" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E18" s="43"/>
       <c r="F18" s="52" t="s">
@@ -4241,13 +4244,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E19" s="43"/>
       <c r="F19" s="52" t="s">
@@ -4264,10 +4267,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D20" s="57" t="s">
         <v>47</v>
@@ -4281,7 +4284,7 @@
       </c>
       <c r="H20" s="43"/>
       <c r="I20" s="43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J20" s="53"/>
       <c r="K20" s="53"/>
@@ -4291,13 +4294,13 @@
         <v>9</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D21" s="60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E21" s="60"/>
       <c r="F21" s="51"/>
@@ -4312,13 +4315,13 @@
         <v>10</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D22" s="60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E22" s="60"/>
       <c r="F22" s="51"/>
@@ -4333,10 +4336,10 @@
         <v>11</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D23" s="60" t="s">
         <v>47</v>
@@ -4350,7 +4353,7 @@
       </c>
       <c r="H23" s="60"/>
       <c r="I23" s="60" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J23" s="53"/>
       <c r="K23" s="53"/>
@@ -4360,13 +4363,13 @@
         <v>12</v>
       </c>
       <c r="B24" s="49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D24" s="50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E24" s="49"/>
       <c r="F24" s="51" t="s">
@@ -4374,7 +4377,7 @@
       </c>
       <c r="G24" s="51"/>
       <c r="H24" s="52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I24" s="40"/>
       <c r="J24" s="53"/>
@@ -4388,10 +4391,10 @@
         <v>32</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D25" s="50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="51" t="s">
@@ -4990,8 +4993,8 @@
   </sheetPr>
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5073,7 +5076,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
@@ -5111,7 +5114,7 @@
     <row r="8" ht="14.25" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -5175,16 +5178,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D13" s="57" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F13" s="52" t="s">
         <v>49</v>
@@ -5192,7 +5195,7 @@
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
       <c r="I13" s="62" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5209,7 +5212,7 @@
         <v>47</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F14" s="52" t="s">
         <v>49</v>
@@ -5219,7 +5222,7 @@
       </c>
       <c r="H14" s="43"/>
       <c r="I14" s="63" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5248,10 +5251,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>47</v>
@@ -5271,13 +5274,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="44" t="s">
@@ -5294,13 +5297,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="44" t="s">
@@ -5320,10 +5323,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D19" s="57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="44"/>
@@ -5338,13 +5341,13 @@
         <v>8</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" s="57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20" s="43"/>
       <c r="F20" s="51" t="s">
@@ -5359,10 +5362,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C21" s="60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D21" s="60" t="s">
         <v>47</v>
@@ -5376,7 +5379,7 @@
       </c>
       <c r="H21" s="60"/>
       <c r="I21" s="67" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J21" s="53"/>
       <c r="K21" s="53"/>
@@ -5386,13 +5389,13 @@
         <v>10</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="51" t="s">
@@ -5400,7 +5403,7 @@
       </c>
       <c r="G22" s="51"/>
       <c r="H22" s="52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I22" s="68"/>
       <c r="J22" s="53"/>
@@ -5414,10 +5417,10 @@
         <v>32</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E23" s="49"/>
       <c r="F23" s="51" t="s">
@@ -5769,7 +5772,7 @@
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5951,10 +5954,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>47</v>
@@ -5966,7 +5969,7 @@
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
       <c r="I13" s="55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" ht="17.1" customHeight="1" spans="1:9">
@@ -5974,13 +5977,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E14" s="45"/>
       <c r="F14" s="44" t="s">
@@ -5995,10 +5998,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>56</v>
@@ -6016,13 +6019,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E16" s="45"/>
       <c r="F16" s="44" t="s">
@@ -6037,13 +6040,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="44" t="s">
@@ -6058,10 +6061,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>56</v>
@@ -6079,13 +6082,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E19" s="45"/>
       <c r="F19" s="44" t="s">
@@ -6100,13 +6103,13 @@
         <v>8</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48" t="s">
@@ -6121,10 +6124,10 @@
         <v>9</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>47</v>
@@ -6140,13 +6143,13 @@
         <v>10</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48" t="s">
@@ -6161,13 +6164,13 @@
         <v>9</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D23" s="50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E23" s="49"/>
       <c r="F23" s="51" t="s">
@@ -6175,7 +6178,7 @@
       </c>
       <c r="G23" s="51"/>
       <c r="H23" s="52" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I23" s="40"/>
     </row>
@@ -6187,10 +6190,10 @@
         <v>32</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D24" s="50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E24" s="49"/>
       <c r="F24" s="51" t="s">
@@ -6670,8 +6673,8 @@
   </sheetPr>
   <dimension ref="B1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6756,7 +6759,7 @@
         <v>35</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H5" s="8"/>
     </row>
@@ -6835,10 +6838,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="28"/>
@@ -6852,10 +6855,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E14" s="32"/>
       <c r="G14" s="29"/>
@@ -6865,10 +6868,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E15" s="27"/>
       <c r="G15" s="29"/>
@@ -6878,10 +6881,10 @@
         <v>4</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
@@ -6894,7 +6897,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
